--- a/Sura/bin/Debug/DataSource - Emision Motor Accesorio Movilidad.xlsx
+++ b/Sura/bin/Debug/DataSource - Emision Motor Accesorio Movilidad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D5F2D9-D3F0-4D42-9133-DC0F68FA2A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD7D182-9EF7-490C-A3A4-66BD7A137AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6150" yWindow="4080" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
   <si>
     <t>Usuario</t>
   </si>
@@ -179,27 +179,6 @@
     <t>1.VUELVE CLIENTE</t>
   </si>
   <si>
-    <t>20/09/2020</t>
-  </si>
-  <si>
-    <t>RGR009</t>
-  </si>
-  <si>
-    <t>RGR010</t>
-  </si>
-  <si>
-    <t>ABC12RGR009</t>
-  </si>
-  <si>
-    <t>ABC12RGR010</t>
-  </si>
-  <si>
-    <t>ZAZ123RGR009</t>
-  </si>
-  <si>
-    <t>ZAZ123RGR010</t>
-  </si>
-  <si>
     <t>03/02/2021</t>
   </si>
   <si>
@@ -219,6 +198,30 @@
   </si>
   <si>
     <t>ZAZ123RPR008</t>
+  </si>
+  <si>
+    <t>Es0km</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>SinAsistenciaMecanica</t>
+  </si>
+  <si>
+    <t>03/05/2022</t>
+  </si>
+  <si>
+    <t>CodigoAgente</t>
+  </si>
+  <si>
+    <t>NUM_GRUPO</t>
+  </si>
+  <si>
+    <t>Mattioli</t>
   </si>
 </sst>
 </file>
@@ -288,7 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -300,6 +303,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -581,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,23 +599,23 @@
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="13" width="21.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="7.85546875" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
-    <col min="18" max="18" width="74.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" customWidth="1"/>
+    <col min="5" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="10" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="15" width="21.28515625" customWidth="1"/>
+    <col min="16" max="17" width="15.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" customWidth="1"/>
+    <col min="21" max="21" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -626,58 +632,70 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>15</v>
       </c>
+      <c r="Z1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -693,54 +711,62 @@
       <c r="E2" s="5">
         <v>1785991583</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="K2"/>
-      <c r="L2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2">
-        <v>2020</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="M2"/>
+      <c r="N2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2">
+        <v>2021</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" t="s">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <v>934000</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="V2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -756,59 +782,67 @@
       <c r="E3" s="5">
         <v>1785991583</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
         <v>39</v>
       </c>
-      <c r="N3">
-        <v>2020</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="P3">
+        <v>2021</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" t="s">
         <v>26</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>28</v>
       </c>
-      <c r="Q3">
+      <c r="T3">
         <v>934000</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="V3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="Z3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -824,57 +858,60 @@
       <c r="E4" s="5">
         <v>8773926396</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M4"/>
-      <c r="N4">
+      <c r="O4"/>
+      <c r="P4">
         <v>2020</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4"/>
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="S4" t="s">
         <v>28</v>
       </c>
-      <c r="Q4">
+      <c r="T4">
         <v>934000</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>44</v>
       </c>
@@ -890,56 +927,68 @@
       <c r="E5">
         <v>7557632631</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5">
+        <v>2302</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N5">
-        <v>2020</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="P5">
+        <v>2021</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" t="s">
         <v>26</v>
       </c>
-      <c r="P5" t="s">
+      <c r="S5" t="s">
         <v>28</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <v>1000000</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="W5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="Z5" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
@@ -955,52 +1004,64 @@
       <c r="E6">
         <v>7557632631</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6">
+        <v>2302</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="M6" s="1"/>
-      <c r="N6">
-        <v>2020</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="N6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6">
+        <v>2021</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" t="s">
         <v>26</v>
       </c>
-      <c r="P6" t="s">
+      <c r="S6" t="s">
         <v>28</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <v>1000000</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="W6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
